--- a/support/tabular-assurance/test-results/assurance-issues.xlsx
+++ b/support/tabular-assurance/test-results/assurance-issues.xlsx
@@ -10,9 +10,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>issue_src</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>session_id</t>
+  </si>
+  <si>
+    <t>issue_row</t>
   </si>
   <si>
     <t>issue_type</t>
@@ -21,7 +24,7 @@
     <t>issue_column</t>
   </si>
   <si>
-    <t>issue_row</t>
+    <t>invalid_value</t>
   </si>
   <si>
     <t>issue_message</t>
@@ -30,40 +33,109 @@
     <t>remediation</t>
   </si>
   <si>
-    <t>test-fixture/example-fail1.duckdb.csv</t>
+    <t>91cddd36-603e-43fd-a265-70bd56024a18</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
   </si>
   <si>
-    <t>column3</t>
-  </si>
-  <si>
-    <t>"the tree is" should be "the tree is blue"</t>
-  </si>
-  <si>
-    <t>Ensure all values in column3 are a concatenation of columns 1 and 2</t>
-  </si>
-  <si>
     <t>column4</t>
   </si>
   <si>
-    <t>"badNum" is not an INTEGER</t>
-  </si>
-  <si>
-    <t>Ensure all values in column4 are integer values</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Non-integer value "abc" found in column4</t>
+  </si>
+  <si>
+    <t>Convert non-integer values to INTEGER.</t>
   </si>
   <si>
     <t>Format Mismatch</t>
   </si>
   <si>
+    <t>column2</t>
+  </si>
+  <si>
+    <t>invalid-email</t>
+  </si>
+  <si>
+    <t>Invalid email format "invalid-email" in column2</t>
+  </si>
+  <si>
+    <t>Correct the email format.</t>
+  </si>
+  <si>
+    <t>Range Violation</t>
+  </si>
+  <si>
     <t>column5</t>
   </si>
   <si>
-    <t>"badEmail" in column5 is not a proper email format.</t>
-  </si>
-  <si>
-    <t>Ensure column2 contains valid email addresses.</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Value 5 in column5 out of range (10-100)</t>
+  </si>
+  <si>
+    <t>Ensure values in column5 are between 10 and 100.</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Value 200 in column5 out of range (10-100)</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Value 150 in column5 out of range (10-100)</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Value 110 in column5 out of range (10-100)</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Value 120 in column5 out of range (10-100)</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Value 130 in column5 out of range (10-100)</t>
+  </si>
+  <si>
+    <t>Unique Value Violation</t>
+  </si>
+  <si>
+    <t>column6</t>
+  </si>
+  <si>
+    <t>Unique1</t>
+  </si>
+  <si>
+    <t>Duplicate value "Unique1" found in column6</t>
+  </si>
+  <si>
+    <t>Ensure each value in column6 is unique.</t>
+  </si>
+  <si>
+    <t>Missing Mandatory Value</t>
+  </si>
+  <si>
+    <t>column7</t>
+  </si>
+  <si>
+    <t>Mandatory field column7 is empty.</t>
+  </si>
+  <si>
+    <t>Provide a value for column7</t>
   </si>
 </sst>
 </file>
@@ -126,6 +198,7 @@
     <col min="4" max="1024" width="15"/>
     <col min="5" max="1024" width="15"/>
     <col min="6" max="1024" width="15"/>
+    <col min="7" max="1024" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -147,65 +220,324 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/support/tabular-assurance/test-results/assurance-issues.xlsx
+++ b/support/tabular-assurance/test-results/assurance-issues.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>session_id</t>
   </si>
@@ -33,7 +33,7 @@
     <t>remediation</t>
   </si>
   <si>
-    <t>91cddd36-603e-43fd-a265-70bd56024a18</t>
+    <t>b064392b-217a-4b17-9893-fc301ca6f256</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>Provide a value for column7</t>
+  </si>
+  <si>
+    <t>Pattern Mismatch</t>
+  </si>
+  <si>
+    <t>column8</t>
+  </si>
+  <si>
+    <t>ABC-ABCD</t>
+  </si>
+  <si>
+    <t>Value ABC-ABCD in column8 does not match the pattern ABC-1234</t>
+  </si>
+  <si>
+    <t>Follow the pattern ABC-1234 in column8</t>
+  </si>
+  <si>
+    <t>XYZ-1234</t>
+  </si>
+  <si>
+    <t>Value XYZ-1234 in column8 does not match the pattern ABC-1234</t>
   </si>
 </sst>
 </file>
@@ -540,6 +561,75 @@
         <v>41</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/support/tabular-assurance/test-results/assurance-issues.xlsx
+++ b/support/tabular-assurance/test-results/assurance-issues.xlsx
@@ -33,7 +33,7 @@
     <t>remediation</t>
   </si>
   <si>
-    <t>b064392b-217a-4b17-9893-fc301ca6f256</t>
+    <t>ed065b78-4687-44ab-a054-aa96819918bb</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
